--- a/Mifos Automation Excels/Client/3533-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-PREPAY-CASH-PREPAY-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/3533-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-2-PREPAY-CASH-PREPAY-Newcreateloan1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -35,9 +30,6 @@
   </si>
   <si>
     <t>Paid Date</t>
-  </si>
-  <si>
-    <t>heading</t>
   </si>
   <si>
     <t>Principal Due</t>
@@ -217,8 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +236,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -288,45 +288,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -359,6 +327,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,26 +423,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -504,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,147 +647,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B3" s="9">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9">
+        <v>42005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="11">
+      <c r="B9" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="9">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="9">
         <v>42005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="11">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9">
         <v>42005</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="14">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="11">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="11">
-        <v>42064</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="16">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="11">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="11">
-        <v>42005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="B18" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -868,111 +805,111 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>10000</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="6">
         <v>10000</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
         <v>0</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>96.99</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>96.99</v>
       </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -983,10 +920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,204 +939,209 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.140625" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5">
         <v>42005</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6">
         <v>5000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>31</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>42036</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>42064</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="6">
+      <c r="E3" s="8"/>
+      <c r="F3" s="4">
         <v>836.76</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>4163.24</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>50.96</v>
       </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
         <v>887.72</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>887.72</v>
       </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
         <v>887.72</v>
       </c>
-      <c r="P3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5">
         <v>42064</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6">
         <v>5000</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="P4" s="6"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>42064</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>42064</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9">
+      <c r="E5" s="8"/>
+      <c r="F5" s="7">
         <v>9163.24</v>
       </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
         <v>46.03</v>
       </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>887.72</v>
+      </c>
+      <c r="L5" s="7">
         <v>9209.27</v>
       </c>
-      <c r="L5" s="9">
-        <v>9209.27</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>8321.5499999999993</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1219,144 +1161,144 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
-        <v>50</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>42064</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="9">
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="7">
         <v>10096.99</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>10000</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>96.99</v>
       </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="4">
         <v>49</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5">
         <v>42064</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8">
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6">
         <v>5000</v>
       </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
         <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="4">
         <v>48</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5">
         <v>42005</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="8">
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6">
         <v>5000</v>
       </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1380,51 +1322,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="17" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="17">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="16">
+        <v>42064</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="18">
-        <v>42064</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="17">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B5" s="17">
+        <v>10096.99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="19">
-        <v>10096.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>51</v>
+      <c r="B6" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
